--- a/REGULAR/CCR/LIMBOC, FLORDELIZA.xlsx
+++ b/REGULAR/CCR/LIMBOC, FLORDELIZA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="427">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1309,6 +1309,12 @@
   </si>
   <si>
     <t>12/15,19,27/2023</t>
+  </si>
+  <si>
+    <t>03/11,12/2024</t>
+  </si>
+  <si>
+    <t>03/13,14/2024</t>
   </si>
 </sst>
 </file>
@@ -2193,7 +2199,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2236,7 +2242,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2300,7 +2306,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2360,7 +2366,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2426,7 +2432,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2489,7 +2495,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2587,7 +2593,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2646,7 +2652,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2711,7 +2717,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2754,7 +2760,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2829,7 +2835,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3015,7 +3021,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3081,7 +3087,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3139,7 +3145,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3205,7 +3211,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3261,7 +3267,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3336,7 +3342,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3379,7 +3385,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3445,7 +3451,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3501,7 +3507,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3599,7 +3605,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3662,7 +3668,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3728,7 +3734,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K748" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K749" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -4106,12 +4112,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K748"/>
+  <dimension ref="A2:K749"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <pane ySplit="4020" topLeftCell="A714" activePane="bottomLeft"/>
-      <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="J733" sqref="J733"/>
+      <pane ySplit="4020" topLeftCell="A720"/>
+      <selection activeCell="R8" sqref="R8"/>
+      <selection pane="bottomLeft" activeCell="C739" sqref="C739"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4272,7 +4278,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>24.624999999999858</v>
+        <v>25.124999999999858</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4282,7 +4288,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>65.147999999999996</v>
+        <v>67.647999999999996</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5513,7 +5519,7 @@
       <c r="D62" s="39"/>
       <c r="E62" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>24.624999999999858</v>
+        <v>25.124999999999858</v>
       </c>
       <c r="F62" s="20"/>
       <c r="G62" s="13" t="str">
@@ -5523,7 +5529,7 @@
       <c r="H62" s="39"/>
       <c r="I62" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>65.147999999999996</v>
+        <v>67.647999999999996</v>
       </c>
       <c r="J62" s="11"/>
       <c r="K62" s="47"/>
@@ -5842,7 +5848,7 @@
       </c>
       <c r="E76" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>24.624999999999858</v>
+        <v>25.124999999999858</v>
       </c>
       <c r="F76" s="20"/>
       <c r="G76" s="13" t="str">
@@ -5852,7 +5858,7 @@
       <c r="H76" s="39"/>
       <c r="I76" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>65.147999999999996</v>
+        <v>67.647999999999996</v>
       </c>
       <c r="J76" s="11"/>
       <c r="K76" s="47">
@@ -21027,15 +21033,17 @@
       <c r="B735" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="C735" s="13"/>
+      <c r="C735" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D735" s="39">
         <v>3</v>
       </c>
       <c r="E735" s="9"/>
       <c r="F735" s="20"/>
-      <c r="G735" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G735" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H735" s="39"/>
       <c r="I735" s="9"/>
@@ -21067,13 +21075,15 @@
         <v>45292</v>
       </c>
       <c r="B737" s="20"/>
-      <c r="C737" s="13"/>
+      <c r="C737" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D737" s="39"/>
       <c r="E737" s="9"/>
       <c r="F737" s="20"/>
-      <c r="G737" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G737" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H737" s="39"/>
       <c r="I737" s="9"/>
@@ -21084,9 +21094,13 @@
       <c r="A738" s="40">
         <v>45323</v>
       </c>
-      <c r="B738" s="20"/>
+      <c r="B738" s="20" t="s">
+        <v>60</v>
+      </c>
       <c r="C738" s="13"/>
-      <c r="D738" s="39"/>
+      <c r="D738" s="39">
+        <v>2</v>
+      </c>
       <c r="E738" s="9"/>
       <c r="F738" s="20"/>
       <c r="G738" s="13" t="str">
@@ -21096,13 +21110,15 @@
       <c r="H738" s="39"/>
       <c r="I738" s="9"/>
       <c r="J738" s="11"/>
-      <c r="K738" s="20"/>
+      <c r="K738" s="20" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="739" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A739" s="40">
-        <v>45352</v>
-      </c>
-      <c r="B739" s="20"/>
+      <c r="A739" s="40"/>
+      <c r="B739" s="20" t="s">
+        <v>127</v>
+      </c>
       <c r="C739" s="13"/>
       <c r="D739" s="39"/>
       <c r="E739" s="9"/>
@@ -21114,11 +21130,13 @@
       <c r="H739" s="39"/>
       <c r="I739" s="9"/>
       <c r="J739" s="11"/>
-      <c r="K739" s="20"/>
+      <c r="K739" s="20" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="740" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A740" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B740" s="20"/>
       <c r="C740" s="13"/>
@@ -21136,7 +21154,7 @@
     </row>
     <row r="741" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A741" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B741" s="20"/>
       <c r="C741" s="13"/>
@@ -21154,7 +21172,7 @@
     </row>
     <row r="742" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A742" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B742" s="20"/>
       <c r="C742" s="13"/>
@@ -21172,7 +21190,7 @@
     </row>
     <row r="743" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A743" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B743" s="20"/>
       <c r="C743" s="13"/>
@@ -21190,7 +21208,7 @@
     </row>
     <row r="744" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A744" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B744" s="20"/>
       <c r="C744" s="13"/>
@@ -21208,7 +21226,7 @@
     </row>
     <row r="745" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A745" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B745" s="20"/>
       <c r="C745" s="13"/>
@@ -21226,7 +21244,7 @@
     </row>
     <row r="746" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A746" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B746" s="20"/>
       <c r="C746" s="13"/>
@@ -21244,7 +21262,7 @@
     </row>
     <row r="747" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A747" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B747" s="20"/>
       <c r="C747" s="13"/>
@@ -21262,7 +21280,7 @@
     </row>
     <row r="748" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A748" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B748" s="20"/>
       <c r="C748" s="13"/>
@@ -21277,6 +21295,24 @@
       <c r="I748" s="9"/>
       <c r="J748" s="11"/>
       <c r="K748" s="20"/>
+    </row>
+    <row r="749" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A749" s="40">
+        <v>45627</v>
+      </c>
+      <c r="B749" s="20"/>
+      <c r="C749" s="13"/>
+      <c r="D749" s="39"/>
+      <c r="E749" s="9"/>
+      <c r="F749" s="20"/>
+      <c r="G749" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H749" s="39"/>
+      <c r="I749" s="9"/>
+      <c r="J749" s="11"/>
+      <c r="K749" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -21448,7 +21484,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>89.772999999999854</v>
+        <v>92.772999999999854</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
